--- a/PCB_Test_Stand_Pergam_v1/_mount/Bill of Materials-PCB_Test_Stand_Pergam_v1.xlsx
+++ b/PCB_Test_Stand_Pergam_v1/_mount/Bill of Materials-PCB_Test_Stand_Pergam_v1.xlsx
@@ -478,7 +478,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,12 +503,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -642,12 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,8 +929,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2188,7 +2176,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -2255,26 +2243,26 @@
       <c r="A45" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="17" t="s">
+      <c r="B45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
+      <c r="G45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="12" t="s">
         <v>132</v>
       </c>

--- a/PCB_Test_Stand_Pergam_v1/_mount/Bill of Materials-PCB_Test_Stand_Pergam_v1.xlsx
+++ b/PCB_Test_Stand_Pergam_v1/_mount/Bill of Materials-PCB_Test_Stand_Pergam_v1.xlsx
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="Print_Titles" localSheetId="0">'Bill of Materials-PCB_Test_Stan'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="143">
   <si>
     <t>Designator</t>
   </si>
@@ -62,21 +62,96 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>C1, C2</t>
+  </si>
+  <si>
     <t>SMD</t>
   </si>
   <si>
     <t>MOUNT</t>
   </si>
   <si>
+    <t>SMD CAP CER 22uF ±10% 50V X7R 1210</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>C3, C14</t>
+  </si>
+  <si>
+    <t>SMD CAP CER 10nF ±10% 50V X5R 0402</t>
+  </si>
+  <si>
     <t>0402</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>SMD CAP CER 10UF ±10% 10V X5R 0402</t>
+  </si>
+  <si>
+    <t>C5, C17, C23, C24, C25, C26, C27, C28, C29, C38, C39, C40, C41</t>
+  </si>
+  <si>
+    <t>SMD CAP CER 0.1UF ±10% 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
     <t>Top</t>
   </si>
   <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>SMD CAP CER 470nF ±10% 50V X5R 0402</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>SMD CAP CER 100UF ±10% 16V X7R 1210</t>
+  </si>
+  <si>
+    <t>C8, C9</t>
+  </si>
+  <si>
+    <t>SMD CAP CER 100nF ±10% 50V X5R 0402</t>
+  </si>
+  <si>
+    <t>C10, C11, C32, C33, C34, C35, C36</t>
+  </si>
+  <si>
+    <t>SMD CAP CER 1uF ±10% 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>C12, C13, C15, C16, C18, C19, C20, C31</t>
+  </si>
+  <si>
+    <t>C21, C22, C37</t>
+  </si>
+  <si>
+    <t>DA1</t>
+  </si>
+  <si>
+    <t>LM43603PWPR</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>MSE 16</t>
+  </si>
+  <si>
     <t>DA2</t>
   </si>
   <si>
@@ -89,9 +164,18 @@
     <t>SC70-6</t>
   </si>
   <si>
+    <t>DA3</t>
+  </si>
+  <si>
+    <t>ADP3333ARMZ-5</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>8-Lead MSOP</t>
+  </si>
+  <si>
     <t>DA4</t>
   </si>
   <si>
@@ -116,6 +200,18 @@
     <t>MSOP-8</t>
   </si>
   <si>
+    <t>DA6</t>
+  </si>
+  <si>
+    <t>ADM3202ARU</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>TSSOP-16</t>
+  </si>
+  <si>
     <t>DD1</t>
   </si>
   <si>
@@ -125,9 +221,36 @@
     <t>SOIC-8</t>
   </si>
   <si>
+    <t>FP1, FP2</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>IHLP2020BZER3R3M01</t>
+  </si>
+  <si>
+    <t>IHLP-2020BZ-01</t>
+  </si>
+  <si>
+    <t>R1, R37, R38, R39, R47, R48, R49</t>
+  </si>
+  <si>
+    <t>SMD RES 1 KOHM 1% ±100ppm/°C 0402</t>
+  </si>
+  <si>
+    <t>R2, R43, R44, R45, R53, R54, R55</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>SMD RES 18.2 KOHM 1% ±100ppm/°C 0402</t>
+  </si>
+  <si>
     <t>R4</t>
   </si>
   <si>
@@ -137,18 +260,57 @@
     <t>1206</t>
   </si>
   <si>
+    <t>R5, R10, R12, R16, R18, R20, R22, R24, R26, R29, R30, R31, R83, R85</t>
+  </si>
+  <si>
+    <t>SMD RES 100 KOHM 1% ±100ppm/°C 0402</t>
+  </si>
+  <si>
+    <t>R6, R21, R32, R46, R62, R63, R64, R65, R66, R67, R68, R69, R70, R71, R72, R73, R74, R75, R77, R78, R79, R81, R82, R97, R99, R100, R101, R102</t>
+  </si>
+  <si>
+    <t>SMD RES 10 KOHM 1% ±100ppm/°C 0402</t>
+  </si>
+  <si>
     <t>R7, R80</t>
   </si>
   <si>
     <t>SMD RES 20 KOHM 1% ±100ppm/°C 0402</t>
   </si>
   <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>SMD RES 8.2 KOHM 1% ±100ppm/°C 0402</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
     <t>R11, R13, R17, R19, R23, R25, R27, R84, R86</t>
   </si>
   <si>
     <t>SMD RES 56K KOHM 1% ±100ppm/°C 0402</t>
   </si>
   <si>
+    <t>R14, R15, R28, R33, R34, R35, R36, R40, R91, R92, R93, R94, R95, R96</t>
+  </si>
+  <si>
+    <t>SMD RES 100 OHM 1% ±100ppm/°C 0402</t>
+  </si>
+  <si>
+    <t>R41, R42, R50, R51, R52, R57, R59, R60, R61, R76, R87, R98, R103, R104, R105, R106, R107</t>
+  </si>
+  <si>
+    <t>SMD RES 0R 0402</t>
+  </si>
+  <si>
+    <t>R56, R58</t>
+  </si>
+  <si>
+    <t>SMD RES 33R OHM 1% ±100ppm/°C 0402</t>
+  </si>
+  <si>
     <t>R88, R89</t>
   </si>
   <si>
@@ -173,6 +335,15 @@
     <t>SOT-23-3</t>
   </si>
   <si>
+    <t>VD2</t>
+  </si>
+  <si>
+    <t>MBRAF1540T3G</t>
+  </si>
+  <si>
+    <t>SMA-FL</t>
+  </si>
+  <si>
     <t>VD17</t>
   </si>
   <si>
@@ -185,6 +356,15 @@
     <t>SOT-143</t>
   </si>
   <si>
+    <t>VT1, VT2, VT3, VT4, VT5, VT6, VT7</t>
+  </si>
+  <si>
+    <t>BSS138</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
     <t>XP1</t>
   </si>
   <si>
@@ -197,12 +377,27 @@
     <t>PLD-6 2.54mm</t>
   </si>
   <si>
+    <t>XP2</t>
+  </si>
+  <si>
+    <t>STM32F411CEU6 Black Pill</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Black pil</t>
+  </si>
+  <si>
     <t>XP3, XP49, XP51</t>
   </si>
   <si>
     <t>PLS-2</t>
   </si>
   <si>
+    <t>XS1</t>
+  </si>
+  <si>
     <t>XS3</t>
   </si>
   <si>
@@ -215,47 +410,75 @@
     <t>PLD-24 2.54mm</t>
   </si>
   <si>
+    <t>XS4, XS5</t>
+  </si>
+  <si>
+    <t>52437-2833 (MOLEX)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>52437-2833</t>
+  </si>
+  <si>
     <t>FFCA 28pin, 0.5mm pitch, AVM 20624 80C 60V VW-1</t>
   </si>
   <si>
     <t>К1, К2, К3, К4, К5, К6, К7</t>
   </si>
   <si>
-    <t>HFD4/5SR</t>
-  </si>
-  <si>
     <t>DIP-8</t>
   </si>
   <si>
+    <t>SMD RES 24 OHM 1% ±100ppm/°C 0402</t>
+  </si>
+  <si>
+    <t>SMD RES 40.2 KOHM 1% ±100ppm/°C 0402</t>
+  </si>
+  <si>
     <t>DS1023-1*20S21(2шт)</t>
   </si>
   <si>
     <t>https://aitech1.ru/catalog/ffc_fpc_shleyfy/27335/?ysclid=m8gwi2sm41842652368</t>
   </si>
   <si>
-    <t>KNP300JB-52-3R (1шт)</t>
-  </si>
-  <si>
-    <t>SQP10AJB-3R(1шт)</t>
+    <t>KNP300JB-52-3R, SQP10AJB-3R</t>
+  </si>
+  <si>
+    <t>2шт</t>
+  </si>
+  <si>
+    <t>TYPEC-304YSSW-ACP16</t>
+  </si>
+  <si>
+    <t>HFD4/5  (IM03TS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +500,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -326,6 +555,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -339,11 +592,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,7 +604,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -364,13 +628,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,10 +927,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -707,482 +982,1338 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="5" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7">
+      <c r="F46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>67</v>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" blackAndWhite="1" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
 
